--- a/data/trans_orig/Q4503_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q4503_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>140641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120804</v>
+        <v>119674</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164307</v>
+        <v>161506</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2029468009909786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1743216633244811</v>
+        <v>0.1726908786039099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.237096789742627</v>
+        <v>0.2330554899823687</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -764,19 +764,19 @@
         <v>54304</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42529</v>
+        <v>42033</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69907</v>
+        <v>67921</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07900973344843812</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0618780191266863</v>
+        <v>0.06115534604765299</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1017108022801093</v>
+        <v>0.09882228308298291</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>195</v>
@@ -785,19 +785,19 @@
         <v>194945</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>169556</v>
+        <v>170375</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220330</v>
+        <v>221685</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1412335281587265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1228394664708783</v>
+        <v>0.1234328842720463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.159624306468759</v>
+        <v>0.1606059582466988</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>138655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117827</v>
+        <v>118285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158567</v>
+        <v>160389</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2000806439125064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1700261395929325</v>
+        <v>0.1706875475862389</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2288146724890417</v>
+        <v>0.2314436651242145</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -835,19 +835,19 @@
         <v>56930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43158</v>
+        <v>44545</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74285</v>
+        <v>72088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08283112498311175</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06279212970821181</v>
+        <v>0.06481128445823001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1080807971358985</v>
+        <v>0.104884310752782</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>189</v>
@@ -856,19 +856,19 @@
         <v>195585</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>171432</v>
+        <v>169128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>225831</v>
+        <v>221536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1416973717033557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1241987322096954</v>
+        <v>0.1225297711796313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1636096744338089</v>
+        <v>0.160497997622991</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>190796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>169390</v>
+        <v>169217</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>216110</v>
+        <v>215188</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2753206969851372</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2444317657245269</v>
+        <v>0.2441822225842337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3118504097426396</v>
+        <v>0.3105195710246884</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>182</v>
@@ -906,19 +906,19 @@
         <v>181015</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159844</v>
+        <v>157843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>204653</v>
+        <v>202839</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2633680889090307</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2325650947267092</v>
+        <v>0.2296536205456427</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2977595340882918</v>
+        <v>0.2951208907727724</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>369</v>
@@ -927,19 +927,19 @@
         <v>371811</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>339232</v>
+        <v>338588</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>404501</v>
+        <v>404892</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2693690105535976</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2457665021740034</v>
+        <v>0.2452998872814434</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2930527104534065</v>
+        <v>0.2933359280265295</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>57937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44078</v>
+        <v>44786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74513</v>
+        <v>72645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08360414497528022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06360511416187807</v>
+        <v>0.06462688349678627</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1075238277757835</v>
+        <v>0.1048280344219508</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -977,19 +977,19 @@
         <v>102620</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85789</v>
+        <v>86444</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122151</v>
+        <v>119608</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1493075010777305</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1248190170381111</v>
+        <v>0.1257721956325676</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1777233706861194</v>
+        <v>0.1740236225916897</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -998,19 +998,19 @@
         <v>160557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140051</v>
+        <v>138893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185944</v>
+        <v>184631</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1163205003122609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1014637451096045</v>
+        <v>0.1006249449348263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1347128121093043</v>
+        <v>0.1337610984786207</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>164966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>144939</v>
+        <v>143612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>189012</v>
+        <v>187509</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2380477131360976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2091492899845184</v>
+        <v>0.2072344720212417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2727464701698402</v>
+        <v>0.2705782231734554</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -1048,19 +1048,19 @@
         <v>292438</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>267574</v>
+        <v>267062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317997</v>
+        <v>319659</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4254835515816889</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3893075924148677</v>
+        <v>0.3885629379582886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.462670941322284</v>
+        <v>0.4650882102627381</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>462</v>
@@ -1069,19 +1069,19 @@
         <v>457404</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>425904</v>
+        <v>425379</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>494858</v>
+        <v>493521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3313795892720592</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3085582977528488</v>
+        <v>0.3081782131893884</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3585139510306841</v>
+        <v>0.3575453346644802</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>189551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165489</v>
+        <v>164128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217031</v>
+        <v>215939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1970793106994336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1720617410661883</v>
+        <v>0.1706468546461083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2256506662375352</v>
+        <v>0.2245151156710775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -1194,19 +1194,19 @@
         <v>84025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66894</v>
+        <v>66352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102517</v>
+        <v>103042</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08695459652233239</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06922629211811555</v>
+        <v>0.06866588389111486</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1060912515880222</v>
+        <v>0.1066346521947426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -1215,19 +1215,19 @@
         <v>273576</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243426</v>
+        <v>242571</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304900</v>
+        <v>310468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1418882196360171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1262513508782443</v>
+        <v>0.1258076317349355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1581343249877756</v>
+        <v>0.1610218633987201</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>152793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130998</v>
+        <v>130006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>176033</v>
+        <v>177146</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.158861121407162</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1362006897955111</v>
+        <v>0.1351691176554982</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1830241410787078</v>
+        <v>0.1841818083861753</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -1265,19 +1265,19 @@
         <v>99896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80882</v>
+        <v>80877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118878</v>
+        <v>120090</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.103379155790631</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08370259648749334</v>
+        <v>0.08369673686348915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.123023280434716</v>
+        <v>0.1242772758549232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>235</v>
@@ -1286,19 +1286,19 @@
         <v>252689</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>225040</v>
+        <v>223977</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>285241</v>
+        <v>285193</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1310552810960139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.11671536033181</v>
+        <v>0.1161643631765876</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1479384360394876</v>
+        <v>0.1479132865157877</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>328629</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>296465</v>
+        <v>298411</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>358581</v>
+        <v>362166</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3416816322952442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3082402753831577</v>
+        <v>0.310263133526295</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3728232785203954</v>
+        <v>0.3765504904032495</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>255</v>
@@ -1336,19 +1336,19 @@
         <v>272802</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245628</v>
+        <v>244701</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>304919</v>
+        <v>303592</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2823140700687862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.254192712788755</v>
+        <v>0.2532324236075425</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3155502504173334</v>
+        <v>0.314176956265612</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>566</v>
@@ -1357,19 +1357,19 @@
         <v>601432</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>563182</v>
+        <v>561369</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>647077</v>
+        <v>646914</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3119284514807709</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2920905697811063</v>
+        <v>0.2911503164069918</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3356018703467067</v>
+        <v>0.3355174657239255</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>81487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65155</v>
+        <v>63969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101086</v>
+        <v>101623</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08472393938330174</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06774303158940062</v>
+        <v>0.06651005080271409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1051011768412254</v>
+        <v>0.1056587492502798</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -1407,19 +1407,19 @@
         <v>123218</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102061</v>
+        <v>102899</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144437</v>
+        <v>146688</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1275146823861572</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1056196510663163</v>
+        <v>0.1064871798034583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1494729680165494</v>
+        <v>0.1518029136203677</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -1428,19 +1428,19 @@
         <v>204706</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>180044</v>
+        <v>178444</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234448</v>
+        <v>232835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1061693325576608</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09337868909965416</v>
+        <v>0.09254897512462792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1215947317322217</v>
+        <v>0.1207585266238328</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>209340</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>186998</v>
+        <v>183919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>242466</v>
+        <v>237146</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2176539962148585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1944247921752952</v>
+        <v>0.1912235344105114</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2520963556595204</v>
+        <v>0.2465649630347956</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>367</v>
@@ -1478,19 +1478,19 @@
         <v>386366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>356228</v>
+        <v>357564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>417244</v>
+        <v>422366</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3998374952320932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3686489707149099</v>
+        <v>0.3700310157523806</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4317919110335532</v>
+        <v>0.4370925440598925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>560</v>
@@ -1499,19 +1499,19 @@
         <v>595706</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>553494</v>
+        <v>552584</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>635800</v>
+        <v>639062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3089587152295373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2870656159644712</v>
+        <v>0.2865940774079292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3297533446311512</v>
+        <v>0.3314451256295588</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>130514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111829</v>
+        <v>110027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153627</v>
+        <v>152765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1926090490778169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1650344277214912</v>
+        <v>0.1623745782741835</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2267174106304761</v>
+        <v>0.2254454794205845</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -1624,19 +1624,19 @@
         <v>116189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97016</v>
+        <v>96778</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>135791</v>
+        <v>136172</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1699068989664536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1418692759193514</v>
+        <v>0.1415219236460126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1985712903404571</v>
+        <v>0.1991284645299157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -1645,19 +1645,19 @@
         <v>246704</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>219822</v>
+        <v>218703</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>275226</v>
+        <v>275421</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1812060491233131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1614609302130762</v>
+        <v>0.1606395707012703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2021557121994084</v>
+        <v>0.2022987979745354</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>129983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109395</v>
+        <v>109560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150418</v>
+        <v>151445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1918254168638455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1614415887056376</v>
+        <v>0.1616858004808132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2219818975268782</v>
+        <v>0.2234979016924182</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -1695,19 +1695,19 @@
         <v>78198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62945</v>
+        <v>64121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96021</v>
+        <v>95536</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1143508730579653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09204631913449998</v>
+        <v>0.09376656002337162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1404136471674621</v>
+        <v>0.1397044898713215</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -1716,19 +1716,19 @@
         <v>208181</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>179188</v>
+        <v>186621</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234498</v>
+        <v>236714</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1529109433377695</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1316150120055002</v>
+        <v>0.1370746668619867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1722407478304455</v>
+        <v>0.1738686622185061</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>189782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>165338</v>
+        <v>167852</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213512</v>
+        <v>215344</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2800738285163515</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.244000396486626</v>
+        <v>0.24771017514811</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.315093844824522</v>
+        <v>0.3177980375302411</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>143</v>
@@ -1766,19 +1766,19 @@
         <v>136940</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>118369</v>
+        <v>118223</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>158758</v>
+        <v>158327</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2002508440973345</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1730944997583183</v>
+        <v>0.1728812080919382</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2321567932421225</v>
+        <v>0.2315258166634255</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>320</v>
@@ -1787,19 +1787,19 @@
         <v>326721</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>297463</v>
+        <v>297702</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>357874</v>
+        <v>359435</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2399797632743635</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2184891231944428</v>
+        <v>0.2186649187466821</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2628619387378573</v>
+        <v>0.2640083672158978</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>61535</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47166</v>
+        <v>48176</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78036</v>
+        <v>78062</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09081190935478174</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06960674112562554</v>
+        <v>0.07109705025471445</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1151627389925337</v>
+        <v>0.1152008194833331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -1837,19 +1837,19 @@
         <v>70353</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55186</v>
+        <v>56912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86450</v>
+        <v>87167</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1028790375074345</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08070021298081066</v>
+        <v>0.08322360502410837</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1264187341678345</v>
+        <v>0.1274673549569387</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -1858,19 +1858,19 @@
         <v>131888</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112357</v>
+        <v>111098</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155661</v>
+        <v>154180</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09687307365422913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08252688189701171</v>
+        <v>0.08160214268350732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1143342913708115</v>
+        <v>0.1132465286909245</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>165798</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141276</v>
+        <v>143713</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189284</v>
+        <v>190208</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2446797961872043</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2084912789211159</v>
+        <v>0.2120869972139581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2793400580234397</v>
+        <v>0.2807035912072222</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>283</v>
@@ -1908,19 +1908,19 @@
         <v>282161</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>255832</v>
+        <v>257502</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>309733</v>
+        <v>310709</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4126123463708121</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3741103776115427</v>
+        <v>0.3765524717348058</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4529314461107218</v>
+        <v>0.4543581592882542</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>441</v>
@@ -1929,19 +1929,19 @@
         <v>447959</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>413158</v>
+        <v>414578</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>483085</v>
+        <v>480877</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3290301706103247</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3034679664017702</v>
+        <v>0.3045109968048672</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3548300771858832</v>
+        <v>0.3532082967166236</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>173162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>151764</v>
+        <v>152143</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197536</v>
+        <v>195981</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1837802462298258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1610708112107416</v>
+        <v>0.1614720423395291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2096486554461844</v>
+        <v>0.2079988213219017</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>119</v>
@@ -2054,19 +2054,19 @@
         <v>126473</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107309</v>
+        <v>106569</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>149459</v>
+        <v>150118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1220259963671802</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1035359975768878</v>
+        <v>0.1028219573880357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1442034227212899</v>
+        <v>0.1448399483452857</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>301</v>
@@ -2075,19 +2075,19 @@
         <v>299635</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>270319</v>
+        <v>268076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>330353</v>
+        <v>329772</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1514327880700984</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1366167434568774</v>
+        <v>0.135483357264706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1669572594284819</v>
+        <v>0.1666639493796926</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>197727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>174639</v>
+        <v>175409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>224447</v>
+        <v>222125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2098517328780687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1853485390390815</v>
+        <v>0.1861653085424327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.238210395771444</v>
+        <v>0.2357464150176633</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -2125,19 +2125,19 @@
         <v>135266</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>113225</v>
+        <v>115390</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>157613</v>
+        <v>157678</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1305094495898112</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.109243809881569</v>
+        <v>0.1113325989158421</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.152070920730298</v>
+        <v>0.152134004282646</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>339</v>
@@ -2146,19 +2146,19 @@
         <v>332993</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>302361</v>
+        <v>298702</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>365892</v>
+        <v>366244</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1682914970291575</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1528106474862298</v>
+        <v>0.1509613294679845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1849185302997731</v>
+        <v>0.18509660859202</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>256202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>229901</v>
+        <v>228598</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>283430</v>
+        <v>281464</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2719123145800811</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2439989880626501</v>
+        <v>0.2426163149413825</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3008101088524682</v>
+        <v>0.2987238406158245</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>238</v>
@@ -2196,19 +2196,19 @@
         <v>249117</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>220888</v>
+        <v>222147</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>276895</v>
+        <v>275495</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2403571922321769</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2131210504435206</v>
+        <v>0.2143359020690693</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2671590569907121</v>
+        <v>0.2658074170205256</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>509</v>
@@ -2217,19 +2217,19 @@
         <v>505319</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>464503</v>
+        <v>469345</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>541022</v>
+        <v>545333</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2553834440627609</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.234755534634898</v>
+        <v>0.237202554434851</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2734277036659383</v>
+        <v>0.2756062060237556</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>108897</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89882</v>
+        <v>90693</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129933</v>
+        <v>130586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1155741608927448</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09539405377096881</v>
+        <v>0.0962548929353734</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1379011127030639</v>
+        <v>0.1385934069712063</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -2267,19 +2267,19 @@
         <v>133267</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111532</v>
+        <v>112150</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>155357</v>
+        <v>156025</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1285806157027265</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1076102770685684</v>
+        <v>0.1082066592367606</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1498947064413199</v>
+        <v>0.1505385826970931</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>240</v>
@@ -2288,19 +2288,19 @@
         <v>242163</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>215136</v>
+        <v>212722</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>271641</v>
+        <v>271450</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1223870645181317</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1087278071940384</v>
+        <v>0.1075076694561921</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1372850481926036</v>
+        <v>0.1371886241564811</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>206235</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181003</v>
+        <v>182277</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>231678</v>
+        <v>231467</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2188815454192796</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1921020045213615</v>
+        <v>0.1934548131920619</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2458842596772997</v>
+        <v>0.2456609215370711</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>381</v>
@@ -2338,19 +2338,19 @@
         <v>392322</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>360060</v>
+        <v>360446</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>424167</v>
+        <v>422645</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3785267461081052</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3473991624821093</v>
+        <v>0.3477721579450189</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4092521905203248</v>
+        <v>0.4077836432698754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>600</v>
@@ -2359,19 +2359,19 @@
         <v>598557</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>559257</v>
+        <v>559895</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>643440</v>
+        <v>637864</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3025052063198514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2826434670005905</v>
+        <v>0.2829660256295889</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3251885432165862</v>
+        <v>0.32237082155978</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>633868</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>590453</v>
+        <v>589200</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>677606</v>
+        <v>681030</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1935694033520363</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1803112922043864</v>
+        <v>0.1799288114494503</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2069261631916076</v>
+        <v>0.2079715936705604</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>367</v>
@@ -2484,19 +2484,19 @@
         <v>380991</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>344431</v>
+        <v>347665</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>420280</v>
+        <v>416636</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1129230992734299</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1020869407964205</v>
+        <v>0.1030452886736398</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1245679649896695</v>
+        <v>0.1234880437743741</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>985</v>
@@ -2505,19 +2505,19 @@
         <v>1014859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>952283</v>
+        <v>959306</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1078038</v>
+        <v>1071588</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1526441705231706</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1432320704323415</v>
+        <v>0.1442884383901005</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1621468806622661</v>
+        <v>0.1611767200100978</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>619158</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>573161</v>
+        <v>572662</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>663879</v>
+        <v>664419</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1890771834888444</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1750308329565853</v>
+        <v>0.1748785370713576</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2027342058401747</v>
+        <v>0.2028989503509739</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>356</v>
@@ -2555,19 +2555,19 @@
         <v>370290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>337516</v>
+        <v>335739</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>407288</v>
+        <v>408607</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1097513367659772</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1000372100669478</v>
+        <v>0.09951054848024379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1207173062064855</v>
+        <v>0.1211083147584401</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>966</v>
@@ -2576,19 +2576,19 @@
         <v>989448</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>935067</v>
+        <v>932159</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1053235</v>
+        <v>1047173</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1488220374710437</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1406427194970815</v>
+        <v>0.1402052874009591</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1584162468330269</v>
+        <v>0.1575043801597314</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>965408</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>915845</v>
+        <v>912722</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1021293</v>
+        <v>1022707</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2948145930381582</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2796790895839561</v>
+        <v>0.2787253096786352</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3118805371687904</v>
+        <v>0.3123122273535685</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>818</v>
@@ -2626,19 +2626,19 @@
         <v>839874</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>789348</v>
+        <v>790211</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>894559</v>
+        <v>892273</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2489325691303821</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2339571553449453</v>
+        <v>0.2342127625305676</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2651408374964708</v>
+        <v>0.2644632750611108</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1764</v>
@@ -2647,19 +2647,19 @@
         <v>1805282</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1729083</v>
+        <v>1727047</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1879887</v>
+        <v>1881630</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2715310398420305</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2600700076595179</v>
+        <v>0.2597636863663494</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2827523382957835</v>
+        <v>0.2830144604752385</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>309857</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>280075</v>
+        <v>277615</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>348124</v>
+        <v>345105</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09462339234876335</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08552880801307182</v>
+        <v>0.08477745603294137</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1063095838508</v>
+        <v>0.105387467487216</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>420</v>
@@ -2697,19 +2697,19 @@
         <v>429458</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>394129</v>
+        <v>393725</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>472091</v>
+        <v>466916</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1272883265169381</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1168170060318462</v>
+        <v>0.1166972104668254</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1399244216867164</v>
+        <v>0.1383904413581692</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>725</v>
@@ -2718,19 +2718,19 @@
         <v>739315</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>689605</v>
+        <v>693283</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>790970</v>
+        <v>788893</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1111997259011245</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1037229849243006</v>
+        <v>0.104276117173302</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1189692150496414</v>
+        <v>0.1186568166145056</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>746338</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>699602</v>
+        <v>700192</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>796674</v>
+        <v>794939</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2279154277721978</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2136431275551177</v>
+        <v>0.2138232456554198</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2432869170459557</v>
+        <v>0.242756818288827</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1330</v>
@@ -2768,19 +2768,19 @@
         <v>1353287</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1291971</v>
+        <v>1296838</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1408289</v>
+        <v>1410768</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4011046683132727</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3829310161383119</v>
+        <v>0.3843733696523309</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4174066591574074</v>
+        <v>0.4181414447847883</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2063</v>
@@ -2789,19 +2789,19 @@
         <v>2099626</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2014459</v>
+        <v>2023267</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2174579</v>
+        <v>2181633</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3158030262626307</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3029931091968517</v>
+        <v>0.30431794811209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3270767078079603</v>
+        <v>0.3281376392417455</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>199504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176239</v>
+        <v>176394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>226228</v>
+        <v>223468</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.284777837896826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2515690701984524</v>
+        <v>0.2517899987176299</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3229250589850842</v>
+        <v>0.3189853622035419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -3154,19 +3154,19 @@
         <v>91013</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73474</v>
+        <v>73444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110230</v>
+        <v>111442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1307805517910571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1055777636264644</v>
+        <v>0.105533720056688</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1583931010802376</v>
+        <v>0.1601348792267016</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>270</v>
@@ -3175,19 +3175,19 @@
         <v>290517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>259142</v>
+        <v>255004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>322250</v>
+        <v>319829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2080347721197987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1855671371023795</v>
+        <v>0.1826041021678997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2307581001563631</v>
+        <v>0.2290243426449266</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>139104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118114</v>
+        <v>116844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163147</v>
+        <v>162013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1985606192490279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1685999942643951</v>
+        <v>0.166785868045537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2328807245466286</v>
+        <v>0.2312620831757339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -3225,19 +3225,19 @@
         <v>125870</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104925</v>
+        <v>107092</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146368</v>
+        <v>149334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1808674365410191</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1507707740243398</v>
+        <v>0.1538849274950104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2103218533506604</v>
+        <v>0.2145834934052321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>249</v>
@@ -3246,19 +3246,19 @@
         <v>264974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238818</v>
+        <v>238937</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>294549</v>
+        <v>294961</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1897433918893646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.171013585574457</v>
+        <v>0.1710991434920561</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2109216423695508</v>
+        <v>0.2112163809288768</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>119485</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99824</v>
+        <v>101999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141669</v>
+        <v>140259</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1705566535431502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1424923732352069</v>
+        <v>0.1455957731274583</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2022222910020839</v>
+        <v>0.2002095510149841</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -3296,19 +3296,19 @@
         <v>150589</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>128534</v>
+        <v>129770</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>173914</v>
+        <v>173851</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2163866767171061</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1846949819549773</v>
+        <v>0.1864719015506263</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2499030989644905</v>
+        <v>0.2498131822695936</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>259</v>
@@ -3317,19 +3317,19 @@
         <v>270074</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>240872</v>
+        <v>240901</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>301403</v>
+        <v>301684</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.19339560461782</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1724841682264496</v>
+        <v>0.1725055744654557</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2158297487921316</v>
+        <v>0.2160312331745021</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>38721</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27736</v>
+        <v>27239</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51972</v>
+        <v>52461</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05527192645799994</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03959081761115045</v>
+        <v>0.03888231864237947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0741864624168824</v>
+        <v>0.07488370806101391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -3367,19 +3367,19 @@
         <v>48896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35842</v>
+        <v>36660</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64557</v>
+        <v>63695</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07026073158695474</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05150294066892037</v>
+        <v>0.05267775825797655</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09276472989418</v>
+        <v>0.09152527123595983</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -3388,19 +3388,19 @@
         <v>87617</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70537</v>
+        <v>69163</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106444</v>
+        <v>106843</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06274145327252041</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05051037687277077</v>
+        <v>0.04952635462701755</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07622271542126766</v>
+        <v>0.07650823861108276</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>203746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>180437</v>
+        <v>181328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>230657</v>
+        <v>229707</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2908329628529959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2575606050646548</v>
+        <v>0.25883333870798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3292471923743377</v>
+        <v>0.3278903219185913</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>262</v>
@@ -3438,19 +3438,19 @@
         <v>279556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252551</v>
+        <v>253020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305860</v>
+        <v>307288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4017046033638629</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3629003460528224</v>
+        <v>0.363573147724355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4395008134032998</v>
+        <v>0.441553403951841</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>459</v>
@@ -3459,19 +3459,19 @@
         <v>483302</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>448993</v>
+        <v>448241</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>520523</v>
+        <v>520170</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3460847781004962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3215167614234525</v>
+        <v>0.3209779215918085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3727381486112835</v>
+        <v>0.3724849680663679</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>261912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>232075</v>
+        <v>234047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>290498</v>
+        <v>291508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2577919117599894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2284241001295187</v>
+        <v>0.2303653274681239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.285927917980799</v>
+        <v>0.2869227825208285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -3584,19 +3584,19 @@
         <v>149315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127327</v>
+        <v>129274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173531</v>
+        <v>175918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1452693261822758</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1238773129289374</v>
+        <v>0.1257714244957459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1688287065565698</v>
+        <v>0.1711511886773099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>375</v>
@@ -3605,19 +3605,19 @@
         <v>411227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>373518</v>
+        <v>373385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>448553</v>
+        <v>447651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2012039127297204</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1827537797466101</v>
+        <v>0.182688714660061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2194666451690021</v>
+        <v>0.2190253383971531</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>185064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>161295</v>
+        <v>161128</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>213186</v>
+        <v>213019</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1821532023904316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1587574503868187</v>
+        <v>0.158593475774111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2098321259540032</v>
+        <v>0.209668548136523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -3655,19 +3655,19 @@
         <v>133983</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112064</v>
+        <v>112597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158626</v>
+        <v>157660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1303520695573413</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1090273344900151</v>
+        <v>0.1095461484292783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1543276080089955</v>
+        <v>0.1533878515855014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>290</v>
@@ -3676,19 +3676,19 @@
         <v>319047</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>284627</v>
+        <v>286483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>353680</v>
+        <v>357830</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1561022328052968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1392615256830023</v>
+        <v>0.1401696008088946</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1730476063925266</v>
+        <v>0.1750781490908984</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>209947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>185606</v>
+        <v>183630</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>239222</v>
+        <v>238701</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2066446243924778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1826862327093176</v>
+        <v>0.1807417614056481</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2354587429721629</v>
+        <v>0.2349460542037898</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>188</v>
@@ -3726,19 +3726,19 @@
         <v>204678</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>181896</v>
+        <v>178096</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>232470</v>
+        <v>231068</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1991315680960905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1769677068836185</v>
+        <v>0.1732701550248456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2261705731739696</v>
+        <v>0.2248068964466663</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>383</v>
@@ -3747,19 +3747,19 @@
         <v>414625</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>377837</v>
+        <v>380795</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>453009</v>
+        <v>455935</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2028662822913652</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1848669808207799</v>
+        <v>0.186314065751081</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2216466795509951</v>
+        <v>0.2230786411810872</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>45344</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32181</v>
+        <v>32822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59302</v>
+        <v>60817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0446309895791555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03167471103611408</v>
+        <v>0.03230582865026846</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05836880637180242</v>
+        <v>0.05986051543062858</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -3797,19 +3797,19 @@
         <v>110519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93273</v>
+        <v>91611</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133997</v>
+        <v>130435</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1075243258558325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09074537081549526</v>
+        <v>0.08912840122470828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1303664633715891</v>
+        <v>0.1269009864190193</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -3818,19 +3818,19 @@
         <v>155863</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131446</v>
+        <v>134153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182939</v>
+        <v>183677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07626026679459022</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0643136987130872</v>
+        <v>0.06563777070441892</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0895078979516024</v>
+        <v>0.08986896851373757</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>313714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>285399</v>
+        <v>288577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>344906</v>
+        <v>345782</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3087792718779456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.280909527614221</v>
+        <v>0.2840374733561952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3394806469798979</v>
+        <v>0.340342153758296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>390</v>
@@ -3868,19 +3868,19 @@
         <v>429357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397361</v>
+        <v>396807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>461586</v>
+        <v>461620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.41772271030846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.386593658897426</v>
+        <v>0.3860546191166263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4490790189539326</v>
+        <v>0.4491114184373781</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>679</v>
@@ -3889,19 +3889,19 @@
         <v>743071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697768</v>
+        <v>702295</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>787290</v>
+        <v>789660</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3635673053790274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3414017826126927</v>
+        <v>0.3436166224041065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3852025656723952</v>
+        <v>0.3863620891298483</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>142147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120438</v>
+        <v>118657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>165626</v>
+        <v>163989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.187865760713385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1591750235437113</v>
+        <v>0.156820981056328</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2188965936201285</v>
+        <v>0.2167330800661719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -4014,19 +4014,19 @@
         <v>101220</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83015</v>
+        <v>82705</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121439</v>
+        <v>121343</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1307092709833646</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1072005734262561</v>
+        <v>0.1068006228305948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1568190209312095</v>
+        <v>0.1566947369461219</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>215</v>
@@ -4035,19 +4035,19 @@
         <v>243366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>211943</v>
+        <v>216433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>274283</v>
+        <v>278279</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1589562448025156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1384316812285606</v>
+        <v>0.1413647270286481</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1791498375701639</v>
+        <v>0.1817592765838827</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>128027</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110093</v>
+        <v>108423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150896</v>
+        <v>151869</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1692048059930325</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1455027679305933</v>
+        <v>0.143295502699796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1994295132846896</v>
+        <v>0.200714463007992</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>86</v>
@@ -4085,19 +4085,19 @@
         <v>95312</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77909</v>
+        <v>77113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>114648</v>
+        <v>115606</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1230805321795175</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1006075076536784</v>
+        <v>0.0995793108855975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1480493681274174</v>
+        <v>0.1492865555848572</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>202</v>
@@ -4106,19 +4106,19 @@
         <v>223339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194940</v>
+        <v>193822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>251774</v>
+        <v>252651</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1458753392257837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.127326501102977</v>
+        <v>0.1265959086880783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1644479317722609</v>
+        <v>0.1650203156348105</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>143959</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>120912</v>
+        <v>123268</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>166753</v>
+        <v>170565</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.190261296219907</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.159801746804532</v>
+        <v>0.162915222428131</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2203860257616342</v>
+        <v>0.2254240573995342</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>129</v>
@@ -4156,19 +4156,19 @@
         <v>137496</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116569</v>
+        <v>117121</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>160129</v>
+        <v>158367</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1775543425832909</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1505304459259649</v>
+        <v>0.151242916488527</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2067813794932706</v>
+        <v>0.2045064387222265</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>263</v>
@@ -4177,19 +4177,19 @@
         <v>281455</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>253088</v>
+        <v>246351</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>315249</v>
+        <v>312381</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.183834171669893</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1653060039110188</v>
+        <v>0.1609055729582674</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2059068472533175</v>
+        <v>0.2040335757936242</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>38683</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27772</v>
+        <v>26827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52852</v>
+        <v>52286</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05112452309371975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03670486564890852</v>
+        <v>0.03545541601692018</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06985031667820543</v>
+        <v>0.06910328618640588</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -4227,19 +4227,19 @@
         <v>47800</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35133</v>
+        <v>35370</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62446</v>
+        <v>61665</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06172627235141381</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04536884779838112</v>
+        <v>0.04567513688324493</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08063858916795918</v>
+        <v>0.07963106271278367</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -4248,19 +4248,19 @@
         <v>86483</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69329</v>
+        <v>68447</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106569</v>
+        <v>105313</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05648684398319478</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04528290517862299</v>
+        <v>0.04470651505644648</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0696059392757149</v>
+        <v>0.06878590183731773</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>303824</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278911</v>
+        <v>274375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>331876</v>
+        <v>331671</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4015436139799559</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3686182444136544</v>
+        <v>0.3626224896623942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4386184460171667</v>
+        <v>0.4383471995952172</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>353</v>
@@ -4298,19 +4298,19 @@
         <v>392560</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>364008</v>
+        <v>363971</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>421227</v>
+        <v>424981</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5069295819024132</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4700589301731525</v>
+        <v>0.4700116485966901</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5439485963017132</v>
+        <v>0.5487961264434335</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>629</v>
@@ -4319,19 +4319,19 @@
         <v>696384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>659144</v>
+        <v>655536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>737356</v>
+        <v>735512</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4548474003186128</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4305235096858545</v>
+        <v>0.4281675177293618</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4816082110883793</v>
+        <v>0.4804043094490308</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>252071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>226457</v>
+        <v>224841</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281558</v>
+        <v>281239</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2662520535895643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.239196586571367</v>
+        <v>0.2374892558634216</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.297396878294248</v>
+        <v>0.2970603352603425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>197</v>
@@ -4444,19 +4444,19 @@
         <v>207999</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>180078</v>
+        <v>182154</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>233987</v>
+        <v>234026</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1986584188438948</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1719910433961223</v>
+        <v>0.1739743968626653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2234792341383293</v>
+        <v>0.2235167941679995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>440</v>
@@ -4465,19 +4465,19 @@
         <v>460070</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>423105</v>
+        <v>421345</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>500651</v>
+        <v>499603</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2307553957277872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2122148522751412</v>
+        <v>0.2113322897662302</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2511091288003796</v>
+        <v>0.250583942176125</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>210250</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>185114</v>
+        <v>183973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>236257</v>
+        <v>236739</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.222077781191607</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1955278538121414</v>
+        <v>0.1943225495423036</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2495477719576304</v>
+        <v>0.2500567501843952</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>159</v>
@@ -4515,19 +4515,19 @@
         <v>166846</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>145178</v>
+        <v>145905</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192142</v>
+        <v>191488</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1593531992563207</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1386582518540513</v>
+        <v>0.1393532101610528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1835138319933881</v>
+        <v>0.1828887743202625</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>359</v>
@@ -4536,19 +4536,19 @@
         <v>377095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>338901</v>
+        <v>340730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>414882</v>
+        <v>412705</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1891380963698419</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.169981222575613</v>
+        <v>0.1708983179515516</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2080906899036124</v>
+        <v>0.206998838063361</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>213910</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>187321</v>
+        <v>187650</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>238851</v>
+        <v>242448</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2259437208666757</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1978590029684836</v>
+        <v>0.1982063506093958</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2522875617470297</v>
+        <v>0.2560872060179805</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>187</v>
@@ -4586,19 +4586,19 @@
         <v>193510</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>169071</v>
+        <v>169173</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>217290</v>
+        <v>220767</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1848204309277962</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1614784728632272</v>
+        <v>0.1615765428602101</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2075324913765892</v>
+        <v>0.2108535552157816</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>392</v>
@@ -4607,19 +4607,19 @@
         <v>407420</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>371966</v>
+        <v>374191</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>445089</v>
+        <v>446148</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2043479099799918</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1865655816947104</v>
+        <v>0.1876811715254723</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2232415943828787</v>
+        <v>0.2237724163536517</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>58428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44717</v>
+        <v>45580</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75203</v>
+        <v>74760</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06171473396302182</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04723310445655302</v>
+        <v>0.04814403896802087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07943332707305824</v>
+        <v>0.07896537384479639</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -4657,19 +4657,19 @@
         <v>122364</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102912</v>
+        <v>104433</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>144263</v>
+        <v>146234</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1168691902435037</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09829083669126362</v>
+        <v>0.09974366561032451</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1377851909403726</v>
+        <v>0.1396673719875915</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>173</v>
@@ -4678,19 +4678,19 @@
         <v>180792</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155206</v>
+        <v>153998</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>207685</v>
+        <v>209169</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09067898291201089</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07784617524259554</v>
+        <v>0.07724005788638245</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1041675226870924</v>
+        <v>0.1049117341304596</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>212081</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>187578</v>
+        <v>186863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>240721</v>
+        <v>239359</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2240117103891311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.198130342977784</v>
+        <v>0.1973753720541002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2542635490077513</v>
+        <v>0.2528248179243417</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>340</v>
@@ -4728,19 +4728,19 @@
         <v>356299</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>325397</v>
+        <v>326580</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>387027</v>
+        <v>389154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3402987607284846</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3107846766313291</v>
+        <v>0.3119142970397393</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3696476822647562</v>
+        <v>0.3716784071693806</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>544</v>
@@ -4749,19 +4749,19 @@
         <v>568379</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>533119</v>
+        <v>531622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>609993</v>
+        <v>616377</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2850796150103683</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2673942238628843</v>
+        <v>0.2666435122306289</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3059515309000783</v>
+        <v>0.3091534916421866</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>855634</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>800254</v>
+        <v>808704</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>909854</v>
+        <v>909309</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2501911198167888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2339975651026746</v>
+        <v>0.2364685459052599</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2660452562730428</v>
+        <v>0.2658858015365512</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>503</v>
@@ -4874,19 +4874,19 @@
         <v>549547</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>507585</v>
+        <v>507188</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>595288</v>
+        <v>597941</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.155012435775971</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1431759605945417</v>
+        <v>0.1430640963252769</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1679146166397383</v>
+        <v>0.1686629144520629</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1300</v>
@@ -4895,19 +4895,19 @@
         <v>1405181</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1332988</v>
+        <v>1336549</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1469184</v>
+        <v>1473598</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2017459465399589</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1913809760649591</v>
+        <v>0.1918922350314623</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2109349465312313</v>
+        <v>0.2115687318071574</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>662445</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>615293</v>
+        <v>618419</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>710495</v>
+        <v>711175</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1937017938059829</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1799143110449164</v>
+        <v>0.1808281974339642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2077518070363853</v>
+        <v>0.2079505886827235</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>483</v>
@@ -4945,19 +4945,19 @@
         <v>522010</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>480628</v>
+        <v>482675</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>566141</v>
+        <v>568768</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1472450325364557</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1355722602085737</v>
+        <v>0.1361496419231836</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1596929982791394</v>
+        <v>0.1604341789267935</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1100</v>
@@ -4966,19 +4966,19 @@
         <v>1184455</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1119555</v>
+        <v>1124375</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1255650</v>
+        <v>1251058</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1700556815250295</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.160737692185537</v>
+        <v>0.1614297434325431</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1802772355798137</v>
+        <v>0.179618020217283</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>687302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>638670</v>
+        <v>639122</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>733435</v>
+        <v>735943</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2009699741984774</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1867499219090528</v>
+        <v>0.1868819232913926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.214459466161032</v>
+        <v>0.21519285069141</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>647</v>
@@ -5016,19 +5016,19 @@
         <v>686273</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>640106</v>
+        <v>637696</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>737173</v>
+        <v>731184</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1935789931817795</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.180556688827794</v>
+        <v>0.1798768505519613</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2079365756771421</v>
+        <v>0.2062473395211575</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1297</v>
@@ -5037,19 +5037,19 @@
         <v>1373574</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1310266</v>
+        <v>1298204</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1444050</v>
+        <v>1438015</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1972080251901665</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1881186950875137</v>
+        <v>0.1863869680110285</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2073265039784023</v>
+        <v>0.2064600084447972</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>181176</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>156420</v>
+        <v>155366</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>210377</v>
+        <v>208207</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0529767178687089</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04573780334907768</v>
+        <v>0.04542963668706402</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06151504238321822</v>
+        <v>0.06088069026879418</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>309</v>
@@ -5087,19 +5087,19 @@
         <v>329579</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>296049</v>
+        <v>295472</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>369929</v>
+        <v>369307</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09296544308499767</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08350743419395885</v>
+        <v>0.08334477159954316</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1043470152254813</v>
+        <v>0.1041715934027806</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>481</v>
@@ -5108,19 +5108,19 @@
         <v>510756</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>467997</v>
+        <v>466888</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>557805</v>
+        <v>555354</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07333065259417582</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06719171120183989</v>
+        <v>0.06703243060808411</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08008570337502073</v>
+        <v>0.07973383571533418</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>1033365</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>974973</v>
+        <v>981079</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1084044</v>
+        <v>1092503</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.302160394310042</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2850861355002944</v>
+        <v>0.2868715196486285</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3169789844705032</v>
+        <v>0.3194524057501177</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1345</v>
@@ -5158,19 +5158,19 @@
         <v>1457772</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1391560</v>
+        <v>1395187</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1515850</v>
+        <v>1519270</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4111980954207962</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3925216874248051</v>
+        <v>0.3935445628284944</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4275804726706681</v>
+        <v>0.4285451951057763</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2311</v>
@@ -5179,19 +5179,19 @@
         <v>2491137</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2413636</v>
+        <v>2412151</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2570015</v>
+        <v>2571434</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3576596941506693</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.346532674490007</v>
+        <v>0.3463194347464467</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3689844715119557</v>
+        <v>0.3691882029427527</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>137704</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117485</v>
+        <v>117328</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>158434</v>
+        <v>155978</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2043630119818342</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1743559378957809</v>
+        <v>0.1741234755038603</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.235126582048171</v>
+        <v>0.231481445152863</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -5544,19 +5544,19 @@
         <v>76744</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61870</v>
+        <v>62255</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94207</v>
+        <v>93776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1144282857309414</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09225106842261453</v>
+        <v>0.09282485770144602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.140467386412868</v>
+        <v>0.1398237071542954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>211</v>
@@ -5565,19 +5565,19 @@
         <v>214448</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>188909</v>
+        <v>187400</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>243562</v>
+        <v>242703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1595010655826221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1405059318598886</v>
+        <v>0.1393835748145123</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.18115526145404</v>
+        <v>0.1805162786921628</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>152765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131446</v>
+        <v>132006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172896</v>
+        <v>175255</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2267134654478344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1950755909340791</v>
+        <v>0.1959064361164502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2565895606663157</v>
+        <v>0.2600911923806886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -5615,19 +5615,19 @@
         <v>121108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101001</v>
+        <v>104583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140165</v>
+        <v>142889</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1805778900906061</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1505969550492596</v>
+        <v>0.1559379467538105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2089923839110119</v>
+        <v>0.2130543182019433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>272</v>
@@ -5636,19 +5636,19 @@
         <v>273873</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247123</v>
+        <v>244037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>303527</v>
+        <v>304046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2036997554488868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1838035972525622</v>
+        <v>0.181508279432774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2257556453750998</v>
+        <v>0.2261416823159243</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>131086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111636</v>
+        <v>110559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151893</v>
+        <v>152515</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1945402019077257</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1656755342763904</v>
+        <v>0.1640764876984537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2254192454793508</v>
+        <v>0.2263428407901365</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>136</v>
@@ -5686,19 +5686,19 @@
         <v>137074</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>118456</v>
+        <v>118154</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>159665</v>
+        <v>157771</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.204383840217009</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1766225731212418</v>
+        <v>0.1761732679051186</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2380672041195911</v>
+        <v>0.2352431029828386</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>262</v>
@@ -5707,19 +5707,19 @@
         <v>268160</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>240386</v>
+        <v>241021</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>296849</v>
+        <v>299171</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1994504828705247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1787932021507276</v>
+        <v>0.1792656788788501</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2207884405210257</v>
+        <v>0.2225158434862354</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>66348</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50804</v>
+        <v>51866</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84157</v>
+        <v>85451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09846507213480428</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07539672975723055</v>
+        <v>0.07697311355577847</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.124894561822963</v>
+        <v>0.1268148977371765</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -5757,19 +5757,19 @@
         <v>57398</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43746</v>
+        <v>45196</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71714</v>
+        <v>71696</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08558358831286166</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0652266978431181</v>
+        <v>0.0673886047415858</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1069293198743582</v>
+        <v>0.1069012139908581</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -5778,19 +5778,19 @@
         <v>123746</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104645</v>
+        <v>104753</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147902</v>
+        <v>147261</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09203942921740484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07783197596589801</v>
+        <v>0.07791301132732031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1100058189017513</v>
+        <v>0.1095288768662213</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>185920</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>163205</v>
+        <v>163416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>209379</v>
+        <v>208889</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2759182485278014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2422075330186663</v>
+        <v>0.2425202012962152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3107332343711033</v>
+        <v>0.3100061230688694</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>268</v>
@@ -5828,19 +5828,19 @@
         <v>278346</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252607</v>
+        <v>255116</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302736</v>
+        <v>302705</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4150263956485818</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3766481125625227</v>
+        <v>0.3803895605486434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4513927118282957</v>
+        <v>0.451346115340017</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>447</v>
@@ -5849,19 +5849,19 @@
         <v>464266</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>429174</v>
+        <v>432009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>497775</v>
+        <v>499838</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3453092668805616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3192090167752757</v>
+        <v>0.3213177678727568</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3702325520089545</v>
+        <v>0.3717671266875949</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>161304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138403</v>
+        <v>138014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>187691</v>
+        <v>185427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1589054183452246</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1363449907078876</v>
+        <v>0.1359612524781108</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1849002364044797</v>
+        <v>0.1826697886184796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -5974,19 +5974,19 @@
         <v>130724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110750</v>
+        <v>107796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156309</v>
+        <v>153870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1254664555892182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1062959036180994</v>
+        <v>0.1034608482265587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1500229553220482</v>
+        <v>0.1476816173557876</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>271</v>
@@ -5995,19 +5995,19 @@
         <v>292028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>259501</v>
+        <v>258775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>324216</v>
+        <v>327413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1419680587172714</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1261555046493867</v>
+        <v>0.125802495071617</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1576163229377889</v>
+        <v>0.1591703409896704</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>287659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258561</v>
+        <v>258457</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316240</v>
+        <v>315030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.283381807049423</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2547157071514974</v>
+        <v>0.2546138976095487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3115376819442438</v>
+        <v>0.3103456114342744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -6045,19 +6045,19 @@
         <v>231868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204486</v>
+        <v>204521</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>261841</v>
+        <v>259195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2225433905510533</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1962624294367359</v>
+        <v>0.1962958656455371</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2513110434317563</v>
+        <v>0.2487709303894189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>487</v>
@@ -6066,19 +6066,19 @@
         <v>519528</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>479724</v>
+        <v>478538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>560172</v>
+        <v>562518</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2525661939292762</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2332157294591475</v>
+        <v>0.2326392635261685</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2723254474234997</v>
+        <v>0.2734659557107121</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>241366</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>213378</v>
+        <v>213499</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>269926</v>
+        <v>269688</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2377772260978282</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2102053221550191</v>
+        <v>0.2103243917534305</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2659122956798537</v>
+        <v>0.2656771858807248</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>244</v>
@@ -6116,19 +6116,19 @@
         <v>254918</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>226666</v>
+        <v>225864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>283996</v>
+        <v>281412</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2446666719058416</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2175503624556699</v>
+        <v>0.216780595134675</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2725751587615523</v>
+        <v>0.2700949880263903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>469</v>
@@ -6137,19 +6137,19 @@
         <v>496285</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>459086</v>
+        <v>454900</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>538887</v>
+        <v>539290</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2412668385639523</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2231825904058984</v>
+        <v>0.2211478074756944</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2619774980507466</v>
+        <v>0.2621735103400371</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>77926</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62129</v>
+        <v>61267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98494</v>
+        <v>96343</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07676695894387858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06120468486498462</v>
+        <v>0.06035640689764894</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09702958375106525</v>
+        <v>0.09491001782390647</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -6187,19 +6187,19 @@
         <v>97007</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78337</v>
+        <v>79423</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116731</v>
+        <v>116526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09310611265319217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07518670871548552</v>
+        <v>0.0762287058390239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1120368926652134</v>
+        <v>0.1118397136824123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -6208,19 +6208,19 @@
         <v>174933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>149240</v>
+        <v>149493</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>203090</v>
+        <v>202045</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08504299682251586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07255255871615141</v>
+        <v>0.07267535023345084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09873117596933971</v>
+        <v>0.09822312531129214</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>246839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>220546</v>
+        <v>218495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>277213</v>
+        <v>276312</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2431685895636456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2172666543756674</v>
+        <v>0.2152456771186547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.273091167728531</v>
+        <v>0.2722028027697735</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>300</v>
@@ -6258,19 +6258,19 @@
         <v>327383</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294219</v>
+        <v>296588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356522</v>
+        <v>360606</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3142173693006947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2823866959855307</v>
+        <v>0.2846600065669159</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3421839865210727</v>
+        <v>0.34610402112115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>528</v>
@@ -6279,19 +6279,19 @@
         <v>574223</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>533746</v>
+        <v>529054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>614807</v>
+        <v>614768</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2791559119669842</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2594784582473067</v>
+        <v>0.2571974071590221</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2988859240676621</v>
+        <v>0.2988671114675766</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>105669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86999</v>
+        <v>87330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128190</v>
+        <v>127513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1402696348077362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1154867685792176</v>
+        <v>0.11592527520201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1701646209116301</v>
+        <v>0.1692666577447751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -6404,19 +6404,19 @@
         <v>87858</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72224</v>
+        <v>70773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108232</v>
+        <v>108262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1126110704114252</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0925727974156252</v>
+        <v>0.09071224047660738</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1387249052858778</v>
+        <v>0.138763210391855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>179</v>
@@ -6425,19 +6425,19 @@
         <v>193527</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169519</v>
+        <v>166084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>220745</v>
+        <v>220986</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1261981087483237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1105423044430438</v>
+        <v>0.1083026384492678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1439469329968297</v>
+        <v>0.1441042491271471</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>238681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>212246</v>
+        <v>214323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>266334</v>
+        <v>265891</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3168356107498574</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2817438336657903</v>
+        <v>0.2845010829525253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3535430703197333</v>
+        <v>0.3529556902260175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>248</v>
@@ -6475,19 +6475,19 @@
         <v>261199</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235024</v>
+        <v>234899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>288028</v>
+        <v>289045</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3347883786075254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3012397240057422</v>
+        <v>0.3010794438043781</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3691772549684244</v>
+        <v>0.3704803677674453</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>466</v>
@@ -6496,19 +6496,19 @@
         <v>499880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>457651</v>
+        <v>463515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>535628</v>
+        <v>539868</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.325969231610579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2984320015852413</v>
+        <v>0.3022560247034906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.349280217927091</v>
+        <v>0.3520456305108649</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>220208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>195308</v>
+        <v>196826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>244158</v>
+        <v>244806</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2923133181790004</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2592606214543693</v>
+        <v>0.2612749391143202</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3241060464320166</v>
+        <v>0.3249666104016432</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>175</v>
@@ -6546,19 +6546,19 @@
         <v>185333</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>161800</v>
+        <v>161364</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>211019</v>
+        <v>210430</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2375479759767886</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.207384864769788</v>
+        <v>0.2068263228313247</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2704718113755815</v>
+        <v>0.2697165088303746</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>375</v>
@@ -6567,19 +6567,19 @@
         <v>405540</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>372135</v>
+        <v>369103</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>440286</v>
+        <v>439507</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2644509921049165</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2426678231532619</v>
+        <v>0.2406901082532863</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2871081718417214</v>
+        <v>0.2866007294698685</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>31646</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20729</v>
+        <v>21341</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44161</v>
+        <v>43685</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04200874120372788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02751691436887115</v>
+        <v>0.02832847370450156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05862110631694538</v>
+        <v>0.05798928843249292</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -6617,19 +6617,19 @@
         <v>43868</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32382</v>
+        <v>32669</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58443</v>
+        <v>60684</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05622778850511106</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0415046560804423</v>
+        <v>0.04187338582030405</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07490838540626633</v>
+        <v>0.07778082040005767</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -6638,19 +6638,19 @@
         <v>75515</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60003</v>
+        <v>60428</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94662</v>
+        <v>96235</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0492428004909163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03912745741668743</v>
+        <v>0.03940487932960719</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06172853746685278</v>
+        <v>0.06275414699560003</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>157124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>136794</v>
+        <v>133355</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181676</v>
+        <v>179202</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.208572695059678</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.181586310867142</v>
+        <v>0.1770205809419958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2411641380998581</v>
+        <v>0.2378799442602728</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -6688,19 +6688,19 @@
         <v>201933</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>178528</v>
+        <v>177974</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228510</v>
+        <v>227712</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2588247864991498</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2288267228886576</v>
+        <v>0.2281167269908054</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2928897082578359</v>
+        <v>0.2918673113421111</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>332</v>
@@ -6709,19 +6709,19 @@
         <v>359056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>327922</v>
+        <v>325902</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>393746</v>
+        <v>397230</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2341388670452646</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2138362668753963</v>
+        <v>0.2125191606193445</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2567596919510131</v>
+        <v>0.259031601615749</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>160814</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>136971</v>
+        <v>137368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>184469</v>
+        <v>186157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1716997363224914</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1462424972023494</v>
+        <v>0.1466666924275613</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1969554884096375</v>
+        <v>0.1987580032359705</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -6834,19 +6834,19 @@
         <v>145304</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123991</v>
+        <v>121407</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169059</v>
+        <v>169360</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1394895837007404</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1190290683822101</v>
+        <v>0.1165487503439926</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1622935110510146</v>
+        <v>0.1625822420004891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -6855,19 +6855,19 @@
         <v>306119</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>275678</v>
+        <v>274120</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>341178</v>
+        <v>342156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1547391905514704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1393515078264802</v>
+        <v>0.1385639692542482</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1724611564289199</v>
+        <v>0.1729555682949953</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>236840</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>212108</v>
+        <v>209441</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>264253</v>
+        <v>265665</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.252871748132513</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2264657057178409</v>
+        <v>0.2236178808458488</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2821401027905179</v>
+        <v>0.2836469530746797</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>199</v>
@@ -6905,19 +6905,19 @@
         <v>213728</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>188361</v>
+        <v>189917</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240975</v>
+        <v>243438</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2051751386461236</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1808233549665381</v>
+        <v>0.1823166248051115</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2313318899978647</v>
+        <v>0.2336960176890312</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>437</v>
@@ -6926,19 +6926,19 @@
         <v>450569</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>415394</v>
+        <v>414836</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>488191</v>
+        <v>491344</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2277566691132928</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.209976222335854</v>
+        <v>0.2096942023160543</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2467742707233264</v>
+        <v>0.2483678312425135</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>200747</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>175796</v>
+        <v>176769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>226020</v>
+        <v>227956</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2143356532909475</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1876958268272047</v>
+        <v>0.1887342320050381</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2413186623953849</v>
+        <v>0.2433860304972461</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>185</v>
@@ -6976,19 +6976,19 @@
         <v>193535</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>170382</v>
+        <v>171120</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>221659</v>
+        <v>220756</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1857901758521221</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1635641145280413</v>
+        <v>0.1642719209167685</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2127890311480406</v>
+        <v>0.2119222262160828</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>388</v>
@@ -6997,19 +6997,19 @@
         <v>394283</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>361184</v>
+        <v>357532</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>430848</v>
+        <v>427922</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1993047752214686</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1825737398747273</v>
+        <v>0.1807277282525977</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2177883115336345</v>
+        <v>0.2163091018489054</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>80303</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64890</v>
+        <v>64586</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98418</v>
+        <v>100008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08573879416680724</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06928191919327677</v>
+        <v>0.06895766403912099</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1050801822722726</v>
+        <v>0.1067777210174389</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>99</v>
@@ -7047,19 +7047,19 @@
         <v>105673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>88443</v>
+        <v>86612</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>125707</v>
+        <v>126889</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1014437554916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08490363729288652</v>
+        <v>0.08314569601802953</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1206765295045227</v>
+        <v>0.121811288536348</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>179</v>
@@ -7068,19 +7068,19 @@
         <v>185976</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>161345</v>
+        <v>161170</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>212737</v>
+        <v>214216</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09400838290515397</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08155778959492284</v>
+        <v>0.08146934897118847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1075360293376185</v>
+        <v>0.1082832441874244</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>257897</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>231153</v>
+        <v>229961</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>285767</v>
+        <v>285355</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2753540680872408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2467994826982255</v>
+        <v>0.2455262338805178</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3051104294464681</v>
+        <v>0.3046700605600279</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>347</v>
@@ -7118,19 +7118,19 @@
         <v>383446</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>351131</v>
+        <v>351074</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>416708</v>
+        <v>417188</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.368101346309414</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3370798481810582</v>
+        <v>0.3370248632155591</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4000325824114426</v>
+        <v>0.4004930949668412</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>600</v>
@@ -7139,19 +7139,19 @@
         <v>641344</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>600780</v>
+        <v>595802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>687845</v>
+        <v>685670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3241909822086142</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3036866650267164</v>
+        <v>0.3011701041647622</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3476967581910094</v>
+        <v>0.3465972280407658</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>565492</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>521608</v>
+        <v>519609</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>605750</v>
+        <v>607236</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1673623505378715</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1543744919218704</v>
+        <v>0.1537828639840245</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1792770574191164</v>
+        <v>0.1797167769174561</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>409</v>
@@ -7264,19 +7264,19 @@
         <v>440630</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>399951</v>
+        <v>404738</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>480984</v>
+        <v>489527</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1246672004308089</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1131578618719875</v>
+        <v>0.1145122518754956</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1360845413998778</v>
+        <v>0.1385017315413707</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>945</v>
@@ -7285,19 +7285,19 @@
         <v>1006122</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>946224</v>
+        <v>944889</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1065897</v>
+        <v>1069457</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1455343022359416</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1368701552403598</v>
+        <v>0.1366771065337171</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1541806446025965</v>
+        <v>0.154695694811953</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>915946</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>866898</v>
+        <v>866382</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>975531</v>
+        <v>971641</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2710821912207028</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2565659770030058</v>
+        <v>0.2564133738492952</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2887170551496751</v>
+        <v>0.2875656948338445</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>787</v>
@@ -7335,19 +7335,19 @@
         <v>827903</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>779041</v>
+        <v>784371</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>882617</v>
+        <v>881573</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2342383295491349</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2204137069383425</v>
+        <v>0.2219216663325117</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2497186046642292</v>
+        <v>0.2494231923681462</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1662</v>
@@ -7356,19 +7356,19 @@
         <v>1743849</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1678074</v>
+        <v>1671923</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1828164</v>
+        <v>1813176</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2522456350736951</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2427313666231982</v>
+        <v>0.2418416784808377</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2644416479761337</v>
+        <v>0.2622737294697846</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>793407</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>746650</v>
+        <v>740799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>847482</v>
+        <v>839343</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2348158708690053</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2209776630399813</v>
+        <v>0.2192458518867763</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2508196524545369</v>
+        <v>0.2484109058780552</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>740</v>
@@ -7406,19 +7406,19 @@
         <v>770860</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>719986</v>
+        <v>722199</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>817872</v>
+        <v>817407</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2180992155840307</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2037054762369618</v>
+        <v>0.2043313550486873</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2314002049380399</v>
+        <v>0.2312685252326355</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1494</v>
@@ -7427,19 +7427,19 @@
         <v>1564268</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1491932</v>
+        <v>1490592</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1631586</v>
+        <v>1635041</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2262694210241838</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2158061778510566</v>
+        <v>0.2156122600056061</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2360068907301786</v>
+        <v>0.2365067469646903</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>256223</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>228114</v>
+        <v>227587</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>286370</v>
+        <v>288426</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0758315485935586</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06751247863102425</v>
+        <v>0.06735648920303375</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08475357806733765</v>
+        <v>0.08536214562957006</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>292</v>
@@ -7477,19 +7477,19 @@
         <v>303947</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>271090</v>
+        <v>271449</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>341732</v>
+        <v>338595</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08599551365166662</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07669926925993296</v>
+        <v>0.07680104913424279</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09668623890801317</v>
+        <v>0.09579848711736041</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>537</v>
@@ -7498,19 +7498,19 @@
         <v>560170</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>514225</v>
+        <v>514653</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>601720</v>
+        <v>605999</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08102791210724045</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07438200341772469</v>
+        <v>0.07444386702491246</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08703810879119644</v>
+        <v>0.08765698282545609</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>847780</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>799942</v>
+        <v>797545</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>900036</v>
+        <v>896535</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2509080387788618</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2367498938090156</v>
+        <v>0.2360402923395712</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.266373453375124</v>
+        <v>0.2653373232507545</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1101</v>
@@ -7548,19 +7548,19 @@
         <v>1191108</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1134184</v>
+        <v>1133479</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1251793</v>
+        <v>1247463</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3369997407843589</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3208941943724503</v>
+        <v>0.3206946560197215</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3541694435877625</v>
+        <v>0.352944225957451</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1907</v>
@@ -7569,19 +7569,19 @@
         <v>2038888</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1954703</v>
+        <v>1963501</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2113379</v>
+        <v>2118684</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2949227295589391</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2827453617130269</v>
+        <v>0.2840179851875618</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3056977191490454</v>
+        <v>0.3064651038969134</v>
       </c>
     </row>
     <row r="33">
